--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3237273333333333</v>
+        <v>0.280701</v>
       </c>
       <c r="H2">
-        <v>0.9711819999999999</v>
+        <v>0.842103</v>
       </c>
       <c r="I2">
-        <v>0.1800074584373758</v>
+        <v>0.188797685202</v>
       </c>
       <c r="J2">
-        <v>0.1800074584373758</v>
+        <v>0.188797685202</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2044843333333334</v>
+        <v>5.171219666666667</v>
       </c>
       <c r="N2">
-        <v>0.613453</v>
+        <v>15.513659</v>
       </c>
       <c r="O2">
-        <v>0.03437184025187553</v>
+        <v>0.8031574816043436</v>
       </c>
       <c r="P2">
-        <v>0.03437184025187552</v>
+        <v>0.8031574816043435</v>
       </c>
       <c r="Q2">
-        <v>0.06619716793844445</v>
+        <v>1.451566531653</v>
       </c>
       <c r="R2">
-        <v>0.5957745114459999</v>
+        <v>13.064098784877</v>
       </c>
       <c r="S2">
-        <v>0.006187187605555605</v>
+        <v>0.151634273379568</v>
       </c>
       <c r="T2">
-        <v>0.006187187605555602</v>
+        <v>0.151634273379568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3237273333333333</v>
+        <v>0.280701</v>
       </c>
       <c r="H3">
-        <v>0.9711819999999999</v>
+        <v>0.842103</v>
       </c>
       <c r="I3">
-        <v>0.1800074584373758</v>
+        <v>0.188797685202</v>
       </c>
       <c r="J3">
-        <v>0.1800074584373758</v>
+        <v>0.188797685202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.171219666666667</v>
+        <v>1.267392666666667</v>
       </c>
       <c r="N3">
-        <v>15.513659</v>
+        <v>3.802178</v>
       </c>
       <c r="O3">
-        <v>0.8692320501653281</v>
+        <v>0.1968425183956564</v>
       </c>
       <c r="P3">
-        <v>0.869232050165328</v>
+        <v>0.1968425183956563</v>
       </c>
       <c r="Q3">
-        <v>1.674065152770889</v>
+        <v>0.355758388926</v>
       </c>
       <c r="R3">
-        <v>15.066586374938</v>
+        <v>3.201825500334</v>
       </c>
       <c r="S3">
-        <v>0.1564682521425703</v>
+        <v>0.03716341182243203</v>
       </c>
       <c r="T3">
-        <v>0.1564682521425702</v>
+        <v>0.03716341182243203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3237273333333333</v>
+        <v>0.9248883333333334</v>
       </c>
       <c r="H4">
-        <v>0.9711819999999999</v>
+        <v>2.774665</v>
       </c>
       <c r="I4">
-        <v>0.1800074584373758</v>
+        <v>0.6220739377617791</v>
       </c>
       <c r="J4">
-        <v>0.1800074584373758</v>
+        <v>0.622073937761779</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.573478</v>
+        <v>5.171219666666667</v>
       </c>
       <c r="N4">
-        <v>1.720434</v>
+        <v>15.513659</v>
       </c>
       <c r="O4">
-        <v>0.09639610958279644</v>
+        <v>0.8031574816043436</v>
       </c>
       <c r="P4">
-        <v>0.09639610958279642</v>
+        <v>0.8031574816043435</v>
       </c>
       <c r="Q4">
-        <v>0.1856505036653333</v>
+        <v>4.782800738803889</v>
       </c>
       <c r="R4">
-        <v>1.670854532988</v>
+        <v>43.04520664923501</v>
       </c>
       <c r="S4">
-        <v>0.01735201868924996</v>
+        <v>0.4996233372244477</v>
       </c>
       <c r="T4">
-        <v>0.01735201868924995</v>
+        <v>0.4996233372244476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9248883333333332</v>
+        <v>0.9248883333333334</v>
       </c>
       <c r="H5">
         <v>2.774665</v>
       </c>
       <c r="I5">
-        <v>0.5142809428769698</v>
+        <v>0.6220739377617791</v>
       </c>
       <c r="J5">
-        <v>0.5142809428769698</v>
+        <v>0.622073937761779</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2044843333333334</v>
+        <v>1.267392666666667</v>
       </c>
       <c r="N5">
-        <v>0.613453</v>
+        <v>3.802178</v>
       </c>
       <c r="O5">
-        <v>0.03437184025187553</v>
+        <v>0.1968425183956564</v>
       </c>
       <c r="P5">
-        <v>0.03437184025187552</v>
+        <v>0.1968425183956563</v>
       </c>
       <c r="Q5">
-        <v>0.1891251742494444</v>
+        <v>1.172196691152222</v>
       </c>
       <c r="R5">
-        <v>1.702126568245</v>
+        <v>10.54977022037</v>
       </c>
       <c r="S5">
-        <v>0.01767678241315113</v>
+        <v>0.1224506005373314</v>
       </c>
       <c r="T5">
-        <v>0.01767678241315113</v>
+        <v>0.1224506005373314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9248883333333332</v>
+        <v>0.2811926666666666</v>
       </c>
       <c r="H6">
-        <v>2.774665</v>
+        <v>0.8435779999999999</v>
       </c>
       <c r="I6">
-        <v>0.5142809428769698</v>
+        <v>0.1891283770362209</v>
       </c>
       <c r="J6">
-        <v>0.5142809428769698</v>
+        <v>0.1891283770362209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>15.513659</v>
       </c>
       <c r="O6">
-        <v>0.8692320501653281</v>
+        <v>0.8031574816043436</v>
       </c>
       <c r="P6">
-        <v>0.869232050165328</v>
+        <v>0.8031574816043435</v>
       </c>
       <c r="Q6">
-        <v>4.782800738803888</v>
+        <v>1.454109047989111</v>
       </c>
       <c r="R6">
-        <v>43.045206649235</v>
+        <v>13.086981431902</v>
       </c>
       <c r="S6">
-        <v>0.4470294783379065</v>
+        <v>0.151899871000328</v>
       </c>
       <c r="T6">
-        <v>0.4470294783379064</v>
+        <v>0.151899871000328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9248883333333332</v>
+        <v>0.2811926666666666</v>
       </c>
       <c r="H7">
-        <v>2.774665</v>
+        <v>0.8435779999999999</v>
       </c>
       <c r="I7">
-        <v>0.5142809428769698</v>
+        <v>0.1891283770362209</v>
       </c>
       <c r="J7">
-        <v>0.5142809428769698</v>
+        <v>0.1891283770362209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.573478</v>
+        <v>1.267392666666667</v>
       </c>
       <c r="N7">
-        <v>1.720434</v>
+        <v>3.802178</v>
       </c>
       <c r="O7">
-        <v>0.09639610958279644</v>
+        <v>0.1968425183956564</v>
       </c>
       <c r="P7">
-        <v>0.09639610958279642</v>
+        <v>0.1968425183956563</v>
       </c>
       <c r="Q7">
-        <v>0.5304031116233333</v>
+        <v>0.3563815236537777</v>
       </c>
       <c r="R7">
-        <v>4.77362800461</v>
+        <v>3.207433712883999</v>
       </c>
       <c r="S7">
-        <v>0.04957468212591226</v>
+        <v>0.03722850603589295</v>
       </c>
       <c r="T7">
-        <v>0.04957468212591224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.549795</v>
-      </c>
-      <c r="H8">
-        <v>1.649385</v>
-      </c>
-      <c r="I8">
-        <v>0.3057115986856543</v>
-      </c>
-      <c r="J8">
-        <v>0.3057115986856543</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.2044843333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.613453</v>
-      </c>
-      <c r="O8">
-        <v>0.03437184025187553</v>
-      </c>
-      <c r="P8">
-        <v>0.03437184025187552</v>
-      </c>
-      <c r="Q8">
-        <v>0.112424464045</v>
-      </c>
-      <c r="R8">
-        <v>1.011820176405</v>
-      </c>
-      <c r="S8">
-        <v>0.01050787023316879</v>
-      </c>
-      <c r="T8">
-        <v>0.01050787023316879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.549795</v>
-      </c>
-      <c r="H9">
-        <v>1.649385</v>
-      </c>
-      <c r="I9">
-        <v>0.3057115986856543</v>
-      </c>
-      <c r="J9">
-        <v>0.3057115986856543</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.171219666666667</v>
-      </c>
-      <c r="N9">
-        <v>15.513659</v>
-      </c>
-      <c r="O9">
-        <v>0.8692320501653281</v>
-      </c>
-      <c r="P9">
-        <v>0.869232050165328</v>
-      </c>
-      <c r="Q9">
-        <v>2.843110716635</v>
-      </c>
-      <c r="R9">
-        <v>25.587996449715</v>
-      </c>
-      <c r="S9">
-        <v>0.2657343196848513</v>
-      </c>
-      <c r="T9">
-        <v>0.2657343196848513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.549795</v>
-      </c>
-      <c r="H10">
-        <v>1.649385</v>
-      </c>
-      <c r="I10">
-        <v>0.3057115986856543</v>
-      </c>
-      <c r="J10">
-        <v>0.3057115986856543</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.573478</v>
-      </c>
-      <c r="N10">
-        <v>1.720434</v>
-      </c>
-      <c r="O10">
-        <v>0.09639610958279644</v>
-      </c>
-      <c r="P10">
-        <v>0.09639610958279642</v>
-      </c>
-      <c r="Q10">
-        <v>0.3152953370100001</v>
-      </c>
-      <c r="R10">
-        <v>2.83765803309</v>
-      </c>
-      <c r="S10">
-        <v>0.02946940876763423</v>
-      </c>
-      <c r="T10">
-        <v>0.02946940876763422</v>
+        <v>0.03722850603589294</v>
       </c>
     </row>
   </sheetData>
